--- a/medicine/Psychotrope/Château_Trottevieille/Château_Trottevieille.xlsx
+++ b/medicine/Psychotrope/Château_Trottevieille/Château_Trottevieille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Trottevieille</t>
+          <t>Château_Trottevieille</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le château Trottevieille, est un domaine viticole de 10 ha situé à Saint-Émilion en Gironde. En AOC Saint-Émilion, il est classé Premier grand cru classé B dans les derniers classements des vins de Saint-Émilion de 2006.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Trottevieille</t>
+          <t>Château_Trottevieille</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire du domaine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Acquisition de Marcel Borie après la Seconde Guerre mondiale, il fait toujours partie de la famille Borie. Émile Casteja, époux d'une fille Borie est aujourd'hui propriétaire du Domaine.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Trottevieille</t>
+          <t>Château_Trottevieille</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Le terroir</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sol est calcaire sur le plateau de Saint-Émilion à l'est de la ville, faisant sa spécificité dans l'appellation.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Trottevieille</t>
+          <t>Château_Trottevieille</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Le vin</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'encépagement est constitué à 50 % de merlot, à 45 % cabernet franc et à 5 % de cabernet-sauvignon.
 </t>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Trottevieille</t>
+          <t>Château_Trottevieille</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,7 +622,9 @@
           <t>Millésimes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Grands millésimes :
 </t>
